--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>Extension.extension:codeTerritorialDivision.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:codeTerritorialDivision.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/ValueSet/code-region-territorial-division</t>
   </si>
   <si>
     <t>base64Binary
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -720,7 +726,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2289,16 +2295,14 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>115</v>
@@ -2321,18 +2325,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -2347,24 +2353,22 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>73</v>
@@ -2382,13 +2386,11 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -2406,19 +2408,19 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>107</v>
@@ -2426,10 +2428,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2437,10 +2439,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2452,22 +2454,24 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>73</v>
@@ -2509,21 +2513,124 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI17" t="s" s="2">
+      <c r="B18" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AJ18" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>107</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-territorial-division</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-territorial-division</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -410,7 +410,7 @@
     <t>Extension.extension:codeTerritorialDivision.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/ValueSet/code-region-territorial-division</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/code-region-territorial-division</t>
   </si>
   <si>
     <t>base64Binary

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-territorial-division.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
